--- a/demo/tablas_excel/CR/revocando/50_credenciales_describe.xlsx
+++ b/demo/tablas_excel/CR/revocando/50_credenciales_describe.xlsx
@@ -525,7 +525,7 @@
         <v>0.2643478260869566</v>
       </c>
       <c r="F3" t="n">
-        <v>4.31695652173913</v>
+        <v>0.08633913043478261</v>
       </c>
       <c r="G3" t="n">
         <v>54.73347826086956</v>
@@ -556,7 +556,7 @@
         <v>0.01073393643098132</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05819756456879558</v>
+        <v>0.001163951291375912</v>
       </c>
       <c r="G4" t="n">
         <v>7.936201131889055</v>
@@ -587,7 +587,7 @@
         <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>4.12</v>
+        <v>0.0824</v>
       </c>
       <c r="G5" t="n">
         <v>45.41</v>
@@ -618,7 +618,7 @@
         <v>0.26</v>
       </c>
       <c r="F6" t="n">
-        <v>4.3</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="G6" t="n">
         <v>49.26</v>
@@ -649,7 +649,7 @@
         <v>0.26</v>
       </c>
       <c r="F7" t="n">
-        <v>4.33</v>
+        <v>0.0866</v>
       </c>
       <c r="G7" t="n">
         <v>53.5</v>
@@ -680,7 +680,7 @@
         <v>0.27</v>
       </c>
       <c r="F8" t="n">
-        <v>4.36</v>
+        <v>0.0872</v>
       </c>
       <c r="G8" t="n">
         <v>57.66</v>
@@ -711,7 +711,7 @@
         <v>0.29</v>
       </c>
       <c r="F9" t="n">
-        <v>4.38</v>
+        <v>0.0876</v>
       </c>
       <c r="G9" t="n">
         <v>83.72</v>
